--- a/data/trans_orig/Q5409-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6129</v>
+        <v>5445</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006009357313693556</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0209481329003754</v>
+        <v>0.01860859031035004</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>6108</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2215</v>
+        <v>2673</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12405</v>
+        <v>13075</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01781068576628477</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006459430971806848</v>
+        <v>0.007795402875998455</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03617177781187007</v>
+        <v>0.03812767420697608</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>7866</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3837</v>
+        <v>3680</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15476</v>
+        <v>15344</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01237752176062761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006037347288927347</v>
+        <v>0.005789889863910137</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02435145777107597</v>
+        <v>0.02414418026791721</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>6147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2632</v>
+        <v>2684</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12406</v>
+        <v>12335</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0210077507013918</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008995035378892046</v>
+        <v>0.009173948291417227</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04240317953399081</v>
+        <v>0.04215860209868968</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -836,19 +836,19 @@
         <v>7231</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3550</v>
+        <v>3301</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14285</v>
+        <v>13417</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02108511601799473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01035319431336782</v>
+        <v>0.009625073764538162</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04165386636975989</v>
+        <v>0.03912347238257402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -857,19 +857,19 @@
         <v>13377</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7648</v>
+        <v>7810</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22050</v>
+        <v>21912</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02104949812504803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01203479635123567</v>
+        <v>0.01228885754804837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03469624170699209</v>
+        <v>0.03447973179412616</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>284678</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>277452</v>
+        <v>278517</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>288895</v>
+        <v>288804</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9729828919849146</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9482847892251084</v>
+        <v>0.9519261414650113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9873959389590177</v>
+        <v>0.9870832544168755</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>357</v>
@@ -907,19 +907,19 @@
         <v>329595</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>320841</v>
+        <v>320282</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>334814</v>
+        <v>335190</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9611041982157205</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9355754474746446</v>
+        <v>0.9339462050553298</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9763216006175792</v>
+        <v>0.9774190099179078</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>651</v>
@@ -928,19 +928,19 @@
         <v>614274</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>604861</v>
+        <v>604901</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>621729</v>
+        <v>621923</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9665729801143244</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9517624017732647</v>
+        <v>0.9518252782315755</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9783049864625837</v>
+        <v>0.9786096798685682</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>3934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1024</v>
+        <v>1037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9083</v>
+        <v>9678</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01874460116039234</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004880332192030933</v>
+        <v>0.004942029115722161</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04327739533480641</v>
+        <v>0.04611152311122084</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1053,19 +1053,19 @@
         <v>15448</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8359</v>
+        <v>8456</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25296</v>
+        <v>27171</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04626484527837602</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02503260569988578</v>
+        <v>0.02532337726296918</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07575710484197345</v>
+        <v>0.08137168884447198</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1074,19 +1074,19 @@
         <v>19382</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11463</v>
+        <v>11803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29487</v>
+        <v>30323</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03564305934869568</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02107998910568586</v>
+        <v>0.02170475855936008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05422404616705842</v>
+        <v>0.05576201198827419</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>21607</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13925</v>
+        <v>13892</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30456</v>
+        <v>31234</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1029468142267351</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06634720949627305</v>
+        <v>0.06618899689062478</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1451089074307699</v>
+        <v>0.148817369848187</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>29</v>
@@ -1124,19 +1124,19 @@
         <v>33024</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22372</v>
+        <v>22778</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46774</v>
+        <v>45753</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09890263192918682</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06699941427858527</v>
+        <v>0.06821520445068933</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1400791657973688</v>
+        <v>0.1370230564883377</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>53</v>
@@ -1145,19 +1145,19 @@
         <v>54631</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>42653</v>
+        <v>42256</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>70452</v>
+        <v>69580</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.100463535184296</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07843563004604114</v>
+        <v>0.07770576480070363</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1295566791955854</v>
+        <v>0.1279544879954882</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>184342</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>174974</v>
+        <v>173613</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>192428</v>
+        <v>192504</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8783085846128725</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8336758484079067</v>
+        <v>0.827191782061048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9168348923586402</v>
+        <v>0.9171984887437453</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>248</v>
@@ -1195,19 +1195,19 @@
         <v>285435</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>270295</v>
+        <v>269561</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>298221</v>
+        <v>298320</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8548325227924372</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8094881874952479</v>
+        <v>0.8072905173120858</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8931240270339234</v>
+        <v>0.8934194046806612</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>440</v>
@@ -1216,19 +1216,19 @@
         <v>469777</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>452406</v>
+        <v>452836</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>485160</v>
+        <v>484839</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8638934054670083</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8319483030424321</v>
+        <v>0.8327392695696597</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8921817805540558</v>
+        <v>0.8915902012750822</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>5692</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12069</v>
+        <v>11567</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01132894410596954</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003874689723880378</v>
+        <v>0.003869835755158549</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02401942420545614</v>
+        <v>0.02302101554378607</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1341,19 +1341,19 @@
         <v>21556</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13845</v>
+        <v>13532</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32953</v>
+        <v>33402</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03184804191901163</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02045554639608937</v>
+        <v>0.01999259134630678</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0486861012785144</v>
+        <v>0.0493493636031853</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -1362,19 +1362,19 @@
         <v>27249</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18760</v>
+        <v>17585</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40631</v>
+        <v>40036</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02310550045897313</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01590757757569539</v>
+        <v>0.01491137963309026</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03445296765629277</v>
+        <v>0.0339485363653978</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>27753</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19302</v>
+        <v>19910</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38194</v>
+        <v>38990</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05523418290385554</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03841504804566999</v>
+        <v>0.03962516859662595</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07601334304915894</v>
+        <v>0.07759732741850235</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1412,19 +1412,19 @@
         <v>40255</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28043</v>
+        <v>28881</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54119</v>
+        <v>54270</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05947501065894207</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04143187769089356</v>
+        <v>0.04267060323449964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07995810084155357</v>
+        <v>0.08018191468050861</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -1433,19 +1433,19 @@
         <v>68008</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52953</v>
+        <v>52213</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86959</v>
+        <v>84147</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05766812749031852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04490205460300742</v>
+        <v>0.04427419934232354</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0737373691828845</v>
+        <v>0.07135308655692045</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>469020</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>456952</v>
+        <v>456812</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>478519</v>
+        <v>478663</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.933436872990175</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9094181622058349</v>
+        <v>0.9091406844511363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9523404611833833</v>
+        <v>0.9526271447601735</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>605</v>
@@ -1483,19 +1483,19 @@
         <v>615031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>597285</v>
+        <v>597355</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>630262</v>
+        <v>629313</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9086769474220463</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8824591265233203</v>
+        <v>0.8825617332186121</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9311800422252209</v>
+        <v>0.9297782820646473</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1091</v>
@@ -1504,19 +1504,19 @@
         <v>1084051</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1062720</v>
+        <v>1064970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1100623</v>
+        <v>1102781</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9192263720507083</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9011382993794518</v>
+        <v>0.9030464478631599</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9332788536678934</v>
+        <v>0.9351087927860555</v>
       </c>
     </row>
     <row r="15">
@@ -1846,19 +1846,19 @@
         <v>4086</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10173</v>
+        <v>9981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01318985622719247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003228846239388357</v>
+        <v>0.003233838752628231</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03283867226618439</v>
+        <v>0.03221938521394412</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -1867,19 +1867,19 @@
         <v>9116</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3958</v>
+        <v>4857</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16415</v>
+        <v>16714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02575165001953741</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01117960545900168</v>
+        <v>0.01371987063961905</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04636999840489822</v>
+        <v>0.0472147816702438</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -1888,19 +1888,19 @@
         <v>13202</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7881</v>
+        <v>7654</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22274</v>
+        <v>21634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01988907906544656</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01187213839872715</v>
+        <v>0.0115307965744032</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03355582696629875</v>
+        <v>0.03259276259135629</v>
       </c>
     </row>
     <row r="5">
@@ -1917,19 +1917,19 @@
         <v>9345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4137</v>
+        <v>4373</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18405</v>
+        <v>18639</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03016650809293367</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01335291314739254</v>
+        <v>0.01411558666085092</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05941168457511919</v>
+        <v>0.06016715905730247</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -1938,19 +1938,19 @@
         <v>23282</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14459</v>
+        <v>14583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32737</v>
+        <v>34067</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06576845596699331</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04084409843056003</v>
+        <v>0.04119640723782242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09247932273631229</v>
+        <v>0.09623421229970847</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -1959,19 +1959,19 @@
         <v>32627</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21533</v>
+        <v>22780</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44998</v>
+        <v>46131</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04915307850054341</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03244011441967218</v>
+        <v>0.03431798686543328</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0677896542486421</v>
+        <v>0.06949690090041541</v>
       </c>
     </row>
     <row r="6">
@@ -1988,19 +1988,19 @@
         <v>296355</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>287122</v>
+        <v>285794</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>303140</v>
+        <v>302603</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9566436356798739</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9268382637781369</v>
+        <v>0.922553601156092</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9785457983416578</v>
+        <v>0.9768120313961319</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>312</v>
@@ -2009,19 +2009,19 @@
         <v>321598</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>310883</v>
+        <v>308563</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>331710</v>
+        <v>331545</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9084798940134693</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8782110852489685</v>
+        <v>0.8716558246288286</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9370453990639434</v>
+        <v>0.936578095966026</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>582</v>
@@ -2030,19 +2030,19 @@
         <v>617953</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>603704</v>
+        <v>603057</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>630287</v>
+        <v>630040</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.93095784243401</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9094910658629454</v>
+        <v>0.9085166331251481</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9495387406554843</v>
+        <v>0.9491668775155365</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>5254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2055</v>
+        <v>2102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11069</v>
+        <v>12658</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02102816536411601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008224024025131527</v>
+        <v>0.008414394799125233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04430308273383495</v>
+        <v>0.05066203028910121</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -2155,19 +2155,19 @@
         <v>37547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27406</v>
+        <v>26708</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51293</v>
+        <v>52212</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09652696416985905</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07045712572480851</v>
+        <v>0.06866059192931533</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1318649944641277</v>
+        <v>0.1342275471272844</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -2176,19 +2176,19 @@
         <v>42801</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31880</v>
+        <v>30114</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>59093</v>
+        <v>58023</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06699885228897177</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04990310131110557</v>
+        <v>0.04713969062407312</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0925014759149449</v>
+        <v>0.09082748707001721</v>
       </c>
     </row>
     <row r="9">
@@ -2205,19 +2205,19 @@
         <v>35742</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23925</v>
+        <v>23794</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49947</v>
+        <v>51013</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.143053293356659</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09575704775456007</v>
+        <v>0.09523327706219852</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1999054203633491</v>
+        <v>0.2041723157260517</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>47</v>
@@ -2226,19 +2226,19 @@
         <v>51546</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38090</v>
+        <v>38728</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>66660</v>
+        <v>65084</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1325162675061758</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09792175045444966</v>
+        <v>0.09956440767984184</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1713720667280316</v>
+        <v>0.1673198185623433</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>75</v>
@@ -2247,19 +2247,19 @@
         <v>87288</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>69748</v>
+        <v>70169</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>108635</v>
+        <v>107140</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1366373725187922</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1091804698278558</v>
+        <v>0.1098400534999307</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1700526258948164</v>
+        <v>0.1677134541868911</v>
       </c>
     </row>
     <row r="10">
@@ -2276,19 +2276,19 @@
         <v>208855</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195149</v>
+        <v>193893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221307</v>
+        <v>221576</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.835918541279225</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7810612648909883</v>
+        <v>0.7760348599166744</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8857577548925671</v>
+        <v>0.8868313468938077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>270</v>
@@ -2297,19 +2297,19 @@
         <v>299886</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>282078</v>
+        <v>281398</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>316286</v>
+        <v>316673</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7709567683239651</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.725174463037275</v>
+        <v>0.7234264828360896</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8131173876398425</v>
+        <v>0.8141128928338446</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>459</v>
@@ -2318,19 +2318,19 @@
         <v>508741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>483049</v>
+        <v>484275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>528954</v>
+        <v>529376</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.796363775192236</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7561464244566896</v>
+        <v>0.7580655428512849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8280035692481136</v>
+        <v>0.8286642221028742</v>
       </c>
     </row>
     <row r="11">
@@ -2422,19 +2422,19 @@
         <v>9340</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4110</v>
+        <v>4442</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16122</v>
+        <v>17561</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01668928192883238</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007344443479776142</v>
+        <v>0.00793657209537881</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0288075253360286</v>
+        <v>0.03137932105173549</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -2443,19 +2443,19 @@
         <v>46663</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33470</v>
+        <v>34891</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62149</v>
+        <v>61464</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06280553585950445</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04504870406799368</v>
+        <v>0.0469618009933872</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08364884033907113</v>
+        <v>0.082726602853663</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>51</v>
@@ -2464,19 +2464,19 @@
         <v>56003</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>43059</v>
+        <v>43309</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73289</v>
+        <v>72059</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04299275738897415</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03305562097624634</v>
+        <v>0.03324808019503487</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05626334330537861</v>
+        <v>0.05531893053725689</v>
       </c>
     </row>
     <row r="13">
@@ -2493,19 +2493,19 @@
         <v>45087</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31532</v>
+        <v>32976</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60545</v>
+        <v>61720</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08056499465765664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05634292766091453</v>
+        <v>0.0589234341245168</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1081855025953456</v>
+        <v>0.1102855147548584</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -2514,19 +2514,19 @@
         <v>74828</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59345</v>
+        <v>58298</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93370</v>
+        <v>92652</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.100713772968165</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07987493333336811</v>
+        <v>0.07846511099949767</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.125670567316295</v>
+        <v>0.1247043151316937</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -2535,19 +2535,19 @@
         <v>119915</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101166</v>
+        <v>97859</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141918</v>
+        <v>142613</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09205731787712353</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07766384202245696</v>
+        <v>0.07512541863062672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1089491407053273</v>
+        <v>0.1094820883165659</v>
       </c>
     </row>
     <row r="14">
@@ -2564,19 +2564,19 @@
         <v>505210</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>488697</v>
+        <v>488107</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>519736</v>
+        <v>518090</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.902745723413511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8732386758232763</v>
+        <v>0.8721853117917192</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9287026310801871</v>
+        <v>0.9257599764123234</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>582</v>
@@ -2585,19 +2585,19 @@
         <v>621484</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>598568</v>
+        <v>599549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>641161</v>
+        <v>642552</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8364806911723305</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8056373687786855</v>
+        <v>0.8069569309003108</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8629647523017429</v>
+        <v>0.8648362122553507</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1041</v>
@@ -2606,19 +2606,19 @@
         <v>1126694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1099958</v>
+        <v>1102440</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1149232</v>
+        <v>1153699</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8649499247339023</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8444249699879461</v>
+        <v>0.846330012670885</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.882251773808817</v>
+        <v>0.8856813969082726</v>
       </c>
     </row>
     <row r="15">
@@ -2948,19 +2948,19 @@
         <v>2896</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8602</v>
+        <v>7772</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008660911142519033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002832016115186504</v>
+        <v>0.002841177870672689</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02572949969994208</v>
+        <v>0.02324571862565648</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2969,19 +2969,19 @@
         <v>7400</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3192</v>
+        <v>3181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14425</v>
+        <v>14908</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01958948611717662</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008448852136931398</v>
+        <v>0.008419578311918061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03818466486545381</v>
+        <v>0.03946315130527677</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2990,19 +2990,19 @@
         <v>10296</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5192</v>
+        <v>5143</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19128</v>
+        <v>19339</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01445847712902159</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00729163025364678</v>
+        <v>0.007222149348903706</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02686109910887571</v>
+        <v>0.02715859159550554</v>
       </c>
     </row>
     <row r="5">
@@ -3019,19 +3019,19 @@
         <v>8887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4106</v>
+        <v>3923</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16994</v>
+        <v>16848</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02658103295301291</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01228096563424197</v>
+        <v>0.01173423788872151</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05082927782358092</v>
+        <v>0.05039418245137559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -3040,19 +3040,19 @@
         <v>27646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18277</v>
+        <v>18763</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38364</v>
+        <v>40311</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07318462342746787</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04838121603022935</v>
+        <v>0.04966872625761855</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1015554655176824</v>
+        <v>0.1067094368715264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -3061,19 +3061,19 @@
         <v>36533</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26287</v>
+        <v>26249</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50699</v>
+        <v>50565</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05130405417125368</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0369153368575655</v>
+        <v>0.03686176249767739</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07119736243358683</v>
+        <v>0.07100897367624466</v>
       </c>
     </row>
     <row r="6">
@@ -3090,19 +3090,19 @@
         <v>322548</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>313724</v>
+        <v>314640</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>328274</v>
+        <v>328456</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9647580559044681</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9383648130655393</v>
+        <v>0.9411046486150999</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9818849009107634</v>
+        <v>0.98242941616794</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>321</v>
@@ -3111,19 +3111,19 @@
         <v>342715</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>330113</v>
+        <v>330295</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>352632</v>
+        <v>353131</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9072258904553555</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8738637700633721</v>
+        <v>0.8743470555740318</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9334753735454652</v>
+        <v>0.9347966845965701</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>635</v>
@@ -3132,19 +3132,19 @@
         <v>665263</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>649763</v>
+        <v>649498</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>677518</v>
+        <v>676614</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9342374686997247</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9124708678367212</v>
+        <v>0.9120984157800612</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9514471327998463</v>
+        <v>0.9501778415970987</v>
       </c>
     </row>
     <row r="7">
@@ -3236,19 +3236,19 @@
         <v>5948</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2544</v>
+        <v>2514</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11901</v>
+        <v>11889</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02314233648232785</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009899377883979481</v>
+        <v>0.00978074692706862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04630893368697258</v>
+        <v>0.04626123785006584</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -3257,19 +3257,19 @@
         <v>27074</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16985</v>
+        <v>16022</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>39751</v>
+        <v>40028</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0676566629819757</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04244546895440102</v>
+        <v>0.0400389399054661</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09933519354487753</v>
+        <v>0.1000284449179528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -3278,19 +3278,19 @@
         <v>33022</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23040</v>
+        <v>22157</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47986</v>
+        <v>47140</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05024846549102405</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03505972330654066</v>
+        <v>0.03371599484621091</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07302018284070412</v>
+        <v>0.0717323878623313</v>
       </c>
     </row>
     <row r="9">
@@ -3307,19 +3307,19 @@
         <v>32158</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22981</v>
+        <v>23011</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43019</v>
+        <v>42219</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1251292691019533</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08942200246499171</v>
+        <v>0.0895366236288631</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1673894883446703</v>
+        <v>0.1642756153095212</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>39</v>
@@ -3328,19 +3328,19 @@
         <v>50009</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>36528</v>
+        <v>36472</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>68070</v>
+        <v>65971</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1249686438861668</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0912811493849004</v>
+        <v>0.09114100759192624</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1701019463237994</v>
+        <v>0.1648569426769369</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>76</v>
@@ -3349,19 +3349,19 @@
         <v>82167</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>64819</v>
+        <v>65552</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>101331</v>
+        <v>102631</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1250314595165113</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09863430803346998</v>
+        <v>0.09974865601307126</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1541933008942398</v>
+        <v>0.1561725257917636</v>
       </c>
     </row>
     <row r="10">
@@ -3378,19 +3378,19 @@
         <v>218892</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>208208</v>
+        <v>208211</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>229646</v>
+        <v>228988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8517283944157189</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8101538148891094</v>
+        <v>0.8101672847336016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8935722014398767</v>
+        <v>0.8910109593858382</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>242</v>
@@ -3399,19 +3399,19 @@
         <v>323086</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>304545</v>
+        <v>302376</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>340554</v>
+        <v>338769</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8073746931318575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7610408911389591</v>
+        <v>0.7556201624350294</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8510254295186567</v>
+        <v>0.8465648972011592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>500</v>
@@ -3420,19 +3420,19 @@
         <v>541979</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>520032</v>
+        <v>519677</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>561018</v>
+        <v>561988</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8247200749924646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7913238212302819</v>
+        <v>0.7907833252077106</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8536911718984322</v>
+        <v>0.8551678073007244</v>
       </c>
     </row>
     <row r="11">
@@ -3524,19 +3524,19 @@
         <v>8843</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4480</v>
+        <v>4372</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15795</v>
+        <v>15683</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01495470641487596</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007575407843974814</v>
+        <v>0.007392828858667606</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02671104844607229</v>
+        <v>0.02652089315223238</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -3545,19 +3545,19 @@
         <v>34474</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22970</v>
+        <v>23425</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48506</v>
+        <v>49140</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04431532176391808</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02952687742524723</v>
+        <v>0.03011238699770346</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06235200282470674</v>
+        <v>0.0631679132961802</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -3566,19 +3566,19 @@
         <v>43317</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30200</v>
+        <v>29779</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>59117</v>
+        <v>58879</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03163565054998427</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02205592730794532</v>
+        <v>0.02174793492632738</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04317427141102627</v>
+        <v>0.04300033680585926</v>
       </c>
     </row>
     <row r="13">
@@ -3595,19 +3595,19 @@
         <v>41045</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30598</v>
+        <v>30306</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53936</v>
+        <v>53955</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06941123842099924</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05174375981291721</v>
+        <v>0.05125157188660934</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09121230182687656</v>
+        <v>0.0912444786681717</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -3616,19 +3616,19 @@
         <v>77655</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63790</v>
+        <v>60643</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97024</v>
+        <v>98122</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09982240959474663</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08200008651613955</v>
+        <v>0.07795433290845119</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1247211828574796</v>
+        <v>0.1261314202284173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -3637,19 +3637,19 @@
         <v>118700</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98774</v>
+        <v>99459</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142066</v>
+        <v>140034</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08668904549015681</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07213678578180704</v>
+        <v>0.07263712790101752</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1037541264615351</v>
+        <v>0.1022697290475787</v>
       </c>
     </row>
     <row r="14">
@@ -3666,19 +3666,19 @@
         <v>541440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>527953</v>
+        <v>527034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>553587</v>
+        <v>553530</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9156340551641248</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8928253176804795</v>
+        <v>0.8912717610633824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9361757575262215</v>
+        <v>0.9360795462311947</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>563</v>
@@ -3687,19 +3687,19 @@
         <v>665802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>641979</v>
+        <v>643084</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>684181</v>
+        <v>687257</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8558622686413353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8252394169374542</v>
+        <v>0.8266599778462913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8794874665014789</v>
+        <v>0.88344224388018</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1135</v>
@@ -3708,19 +3708,19 @@
         <v>1207242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1180234</v>
+        <v>1182439</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1231501</v>
+        <v>1230158</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8816753039598589</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8619506951876457</v>
+        <v>0.8635614307131324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8993922647075401</v>
+        <v>0.8984115954525252</v>
       </c>
     </row>
     <row r="15">
@@ -4053,16 +4053,16 @@
         <v>1864</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9028</v>
+        <v>8820</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01074633816093523</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004579332650348711</v>
+        <v>0.004579973256359978</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02217840311948148</v>
+        <v>0.02166620161917964</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4071,19 +4071,19 @@
         <v>4511</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1767</v>
+        <v>2139</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8328</v>
+        <v>8578</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01031057966199801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004038414396357227</v>
+        <v>0.004887967254782371</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01903536916843656</v>
+        <v>0.01960749611436951</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -4092,19 +4092,19 @@
         <v>8886</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5012</v>
+        <v>4763</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14596</v>
+        <v>14899</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01052060854774246</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005933698446036978</v>
+        <v>0.00563929675875535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01728159636545477</v>
+        <v>0.01764070143850649</v>
       </c>
     </row>
     <row r="5">
@@ -4121,19 +4121,19 @@
         <v>26663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18514</v>
+        <v>19292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35901</v>
+        <v>36540</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06549862604901485</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04548014043287574</v>
+        <v>0.04739075761146064</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0881919382018949</v>
+        <v>0.08976123894056795</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -4142,19 +4142,19 @@
         <v>27002</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20988</v>
+        <v>20330</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36033</v>
+        <v>34958</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06171630721087884</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04797103011943874</v>
+        <v>0.04646724934698312</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08235973370979502</v>
+        <v>0.07990229873774916</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>87</v>
@@ -4163,19 +4163,19 @@
         <v>53665</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42675</v>
+        <v>43393</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65903</v>
+        <v>65127</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06353932664260863</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05052740212447148</v>
+        <v>0.05137796914224715</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07802917458554752</v>
+        <v>0.07711051168338426</v>
       </c>
     </row>
     <row r="6">
@@ -4192,19 +4192,19 @@
         <v>376042</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>366146</v>
+        <v>365891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>384712</v>
+        <v>383747</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9237550357900498</v>
+        <v>0.9237550357900499</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8994441469278427</v>
+        <v>0.8988177055035065</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9450533178688979</v>
+        <v>0.9426824382464987</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>767</v>
@@ -4213,19 +4213,19 @@
         <v>405998</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>396690</v>
+        <v>396914</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>412972</v>
+        <v>413271</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9279731131271229</v>
+        <v>0.9279731131271231</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9066974815914118</v>
+        <v>0.9072083208844184</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9439127338963793</v>
+        <v>0.9445965591208376</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1292</v>
@@ -4234,19 +4234,19 @@
         <v>782041</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>770800</v>
+        <v>769932</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>793583</v>
+        <v>793362</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.925940064809649</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9126315113145125</v>
+        <v>0.9116039267893435</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9396058840511181</v>
+        <v>0.9393444603713725</v>
       </c>
     </row>
     <row r="7">
@@ -4338,19 +4338,19 @@
         <v>13319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8565</v>
+        <v>8613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19955</v>
+        <v>20050</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0431527609571026</v>
+        <v>0.04315276095710259</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02774972410782812</v>
+        <v>0.02790407428726965</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0646500692335933</v>
+        <v>0.06495775648807423</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -4359,19 +4359,19 @@
         <v>39524</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31495</v>
+        <v>30475</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50008</v>
+        <v>49177</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08507012659721737</v>
+        <v>0.08507012659721735</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0677879489557494</v>
+        <v>0.06559378946314057</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1076337178912421</v>
+        <v>0.1058456094714556</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>94</v>
@@ -4380,19 +4380,19 @@
         <v>52844</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43037</v>
+        <v>42451</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65845</v>
+        <v>64090</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06833832492496078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05565624997877109</v>
+        <v>0.05489869023092756</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08515217290265512</v>
+        <v>0.08288243032478863</v>
       </c>
     </row>
     <row r="9">
@@ -4409,19 +4409,19 @@
         <v>31219</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21745</v>
+        <v>23035</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40047</v>
+        <v>40547</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1011437205461694</v>
+        <v>0.1011437205461695</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07045123795709775</v>
+        <v>0.0746297414184932</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1297456324230671</v>
+        <v>0.1313660925220915</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>146</v>
@@ -4430,19 +4430,19 @@
         <v>80429</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>68208</v>
+        <v>68598</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>93474</v>
+        <v>93447</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1731112876615424</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1468065136058398</v>
+        <v>0.1476467858517846</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.201189080530464</v>
+        <v>0.2011294868433377</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>192</v>
@@ -4451,19 +4451,19 @@
         <v>111648</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>97402</v>
+        <v>97692</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>126576</v>
+        <v>128551</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1443846002511849</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1259609866177836</v>
+        <v>0.126336916855832</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1636898946623966</v>
+        <v>0.1662443140185197</v>
       </c>
     </row>
     <row r="10">
@@ -4480,19 +4480,19 @@
         <v>264121</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>255096</v>
+        <v>253320</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>274951</v>
+        <v>273631</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8557035184967278</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8264639307484746</v>
+        <v>0.8207121047033391</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8907920504152188</v>
+        <v>0.8865150100068233</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>665</v>
@@ -4501,19 +4501,19 @@
         <v>344656</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>328201</v>
+        <v>329936</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>356913</v>
+        <v>359078</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7418185857412403</v>
+        <v>0.74181858574124</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.706402966873776</v>
+        <v>0.7101372483095489</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7682003267372123</v>
+        <v>0.7728605355040745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1051</v>
@@ -4522,19 +4522,19 @@
         <v>608776</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>591728</v>
+        <v>588484</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>626467</v>
+        <v>623910</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7872770748238542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7652307434528761</v>
+        <v>0.7610347563928614</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8101552644092281</v>
+        <v>0.8068483870151661</v>
       </c>
     </row>
     <row r="11">
@@ -4626,19 +4626,19 @@
         <v>17694</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12344</v>
+        <v>12142</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25309</v>
+        <v>24714</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02472145226869769</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01724673844082818</v>
+        <v>0.01696411688558693</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03536017856351387</v>
+        <v>0.03452869984899154</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>78</v>
@@ -4647,19 +4647,19 @@
         <v>44035</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34702</v>
+        <v>35498</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55314</v>
+        <v>54967</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04881317219827377</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03846742826236174</v>
+        <v>0.03935007258740795</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06131595353236316</v>
+        <v>0.0609314722667855</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>109</v>
@@ -4668,19 +4668,19 @@
         <v>61729</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>50207</v>
+        <v>50769</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73483</v>
+        <v>74277</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03815502652372375</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03103331678065337</v>
+        <v>0.03138036449796443</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04542008979494901</v>
+        <v>0.04591064861535715</v>
       </c>
     </row>
     <row r="13">
@@ -4697,19 +4697,19 @@
         <v>57882</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45963</v>
+        <v>46454</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71992</v>
+        <v>70497</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08087040176498883</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0642171392012004</v>
+        <v>0.06490294085547239</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1005841460475632</v>
+        <v>0.09849521071551126</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>195</v>
@@ -4718,19 +4718,19 @@
         <v>107431</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93636</v>
+        <v>92347</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122116</v>
+        <v>122464</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1190868467433723</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1037960516415292</v>
+        <v>0.1023663473941046</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1353651583410598</v>
+        <v>0.1357512760202762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>279</v>
@@ -4739,19 +4739,19 @@
         <v>165313</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>147327</v>
+        <v>145886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186610</v>
+        <v>185478</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1021799410125367</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09106316968732871</v>
+        <v>0.09017218786710898</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1153441117049708</v>
+        <v>0.1146444262759246</v>
       </c>
     </row>
     <row r="14">
@@ -4768,19 +4768,19 @@
         <v>640162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>625021</v>
+        <v>625174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>652726</v>
+        <v>653635</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8944081459663134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8732543923381495</v>
+        <v>0.8734677832670574</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9119625026006413</v>
+        <v>0.9132320443770124</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1432</v>
@@ -4789,19 +4789,19 @@
         <v>750654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>733503</v>
+        <v>734165</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>767974</v>
+        <v>767938</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8320999810583539</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8130876078977372</v>
+        <v>0.8138217208280298</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8512987755635494</v>
+        <v>0.8512592513797631</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2343</v>
@@ -4810,19 +4810,19 @@
         <v>1390816</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1367467</v>
+        <v>1368040</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1410644</v>
+        <v>1412038</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8596650324637396</v>
+        <v>0.8596650324637397</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8452329705015112</v>
+        <v>0.8455872650332411</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8719208586082217</v>
+        <v>0.872782621423528</v>
       </c>
     </row>
     <row r="15">
